--- a/output/table3/Table3_Post-ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_Post-ZLB_intraday_volume.xlsx
@@ -620,7 +620,7 @@
         <v>60.05769230769231</v>
       </c>
       <c r="E2" t="n">
-        <v>145.5013476064508</v>
+        <v>145.5013476064509</v>
       </c>
       <c r="F2" t="n">
         <v>0.03225806451612903</v>
@@ -671,7 +671,7 @@
         <v>52</v>
       </c>
       <c r="V2" t="n">
-        <v>60.89029304029304</v>
+        <v>60.89029304029305</v>
       </c>
       <c r="W2" t="n">
         <v>99.71744583355131</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50.6826923076923</v>
+        <v>50.68269230769231</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -732,7 +732,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>38.14438839848675</v>
+        <v>38.14438839848676</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -748,7 +748,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>50.88207417582418</v>
+        <v>50.88207417582417</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -859,7 +859,7 @@
         <v>102.7064943253468</v>
       </c>
       <c r="K5" t="n">
-        <v>155.1003991844885</v>
+        <v>155.1003991844884</v>
       </c>
       <c r="L5" t="n">
         <v>5.352459016393443</v>
@@ -877,7 +877,7 @@
         <v>165.3486967577876</v>
       </c>
       <c r="Q5" t="n">
-        <v>249.4473527026093</v>
+        <v>249.4473527026094</v>
       </c>
       <c r="R5" t="n">
         <v>11.53512396694215</v>
@@ -1077,7 +1077,7 @@
         <v>52</v>
       </c>
       <c r="J8" t="n">
-        <v>143.4974779319042</v>
+        <v>143.4974779319041</v>
       </c>
       <c r="K8" t="n">
         <v>240.1826364380705</v>
@@ -1131,7 +1131,7 @@
         <v>52</v>
       </c>
       <c r="AB8" t="n">
-        <v>41.75951340326341</v>
+        <v>41.7595134032634</v>
       </c>
       <c r="AC8" t="n">
         <v>57.26595529344406</v>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>94.75000000000001</v>
+        <v>94.74999999999999</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>181.5477667493797</v>
+        <v>181.5477667493796</v>
       </c>
       <c r="E11" t="n">
         <v>171.6412798787424</v>
@@ -1316,7 +1316,7 @@
         <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>224.7522250476796</v>
+        <v>224.7522250476797</v>
       </c>
       <c r="Q11" t="n">
         <v>190.3140818901057</v>
@@ -1522,7 +1522,7 @@
         <v>214.6904161412358</v>
       </c>
       <c r="K14" t="n">
-        <v>243.157377293498</v>
+        <v>243.1573772934979</v>
       </c>
       <c r="L14" t="n">
         <v>58.3688524590164</v>
@@ -1537,7 +1537,7 @@
         <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>231.9639224411951</v>
+        <v>231.9639224411952</v>
       </c>
       <c r="Q14" t="n">
         <v>240.9960401872578</v>
@@ -1640,7 +1640,7 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
-        <v>18.90740093240093</v>
+        <v>18.90740093240094</v>
       </c>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
@@ -2385,82 +2385,82 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3985.19257086999</v>
+        <v>4001.254480286738</v>
       </c>
       <c r="E26" t="n">
-        <v>1630.921290161381</v>
+        <v>1595.588078664807</v>
       </c>
       <c r="F26" t="n">
-        <v>2620.354838709677</v>
+        <v>2630.258064516129</v>
       </c>
       <c r="G26" t="n">
-        <v>3898.83870967742</v>
+        <v>3908.290322580645</v>
       </c>
       <c r="H26" t="n">
-        <v>5119.096774193548</v>
+        <v>5093.16129032258</v>
       </c>
       <c r="I26" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J26" t="n">
-        <v>3337.377794336811</v>
+        <v>3338.169138693728</v>
       </c>
       <c r="K26" t="n">
-        <v>1276.614312638987</v>
+        <v>1224.403855081451</v>
       </c>
       <c r="L26" t="n">
-        <v>2286.340163934427</v>
+        <v>2310.696721311475</v>
       </c>
       <c r="M26" t="n">
-        <v>3170.770491803279</v>
+        <v>3172.344262295082</v>
       </c>
       <c r="N26" t="n">
-        <v>4288.032786885246</v>
+        <v>4256.081967213115</v>
       </c>
       <c r="O26" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
-        <v>3416.868394690709</v>
+        <v>3423.874196510561</v>
       </c>
       <c r="Q26" t="n">
-        <v>1234.852922727511</v>
+        <v>1213.705166738312</v>
       </c>
       <c r="R26" t="n">
-        <v>2391.530991735537</v>
+        <v>2438.256198347108</v>
       </c>
       <c r="S26" t="n">
-        <v>3468.925619834711</v>
+        <v>3503.066115702479</v>
       </c>
       <c r="T26" t="n">
-        <v>4229.642561983471</v>
+        <v>4219.285123966942</v>
       </c>
       <c r="U26" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V26" t="n">
-        <v>3057.039177489177</v>
+        <v>3057.257218442932</v>
       </c>
       <c r="W26" t="n">
-        <v>1031.733615826981</v>
+        <v>1012.369413239874</v>
       </c>
       <c r="X26" t="n">
-        <v>2151.694047619048</v>
+        <v>2292.154761904762</v>
       </c>
       <c r="Y26" t="n">
-        <v>2944.521428571428</v>
+        <v>2945.295238095238</v>
       </c>
       <c r="Z26" t="n">
-        <v>3765.213095238095</v>
+        <v>3761.464285714286</v>
       </c>
       <c r="AA26" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB26" t="n">
-        <v>883.0201748285667</v>
+        <v>876.6249278499279</v>
       </c>
       <c r="AC26" t="n">
-        <v>289.7986507609422</v>
+        <v>232.2364393614542</v>
       </c>
       <c r="AD26" t="n">
         <v>698.5234848484849</v>
@@ -2472,7 +2472,7 @@
         <v>979.4064393939394</v>
       </c>
       <c r="AG26" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1870.414426523297</v>
+        <v>1903.087685611879</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>1214.113967544295</v>
+        <v>1236.004553734062</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>1255.574891476751</v>
+        <v>1285.900400104946</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>778.4946488696489</v>
+        <v>800.25589569161</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>16.580870842042</v>
+        <v>28.82795214045213</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>

--- a/output/table3/Table3_Post-ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_Post-ZLB_intraday_volume.xlsx
@@ -756,7 +756,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>10.45769959207459</v>
+        <v>11.80724067599067</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>28.82795214045213</v>
+        <v>198.3873472823473</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>

--- a/output/table3/Table3_Post-ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_Post-ZLB_intraday_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4001.254480286738</v>
+        <v>2136.557752341311</v>
       </c>
       <c r="E26" t="n">
-        <v>1595.588078664807</v>
+        <v>883.4819743009047</v>
       </c>
       <c r="F26" t="n">
-        <v>2630.258064516129</v>
+        <v>1415.153225806452</v>
       </c>
       <c r="G26" t="n">
-        <v>3908.290322580645</v>
+        <v>2099.241935483871</v>
       </c>
       <c r="H26" t="n">
-        <v>5093.16129032258</v>
+        <v>2698.580645161291</v>
       </c>
       <c r="I26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" t="n">
-        <v>3338.169138693728</v>
+        <v>2064.061872025384</v>
       </c>
       <c r="K26" t="n">
-        <v>1224.403855081451</v>
+        <v>817.6011738785187</v>
       </c>
       <c r="L26" t="n">
-        <v>2310.696721311475</v>
+        <v>1451.331967213115</v>
       </c>
       <c r="M26" t="n">
-        <v>3172.344262295082</v>
+        <v>2061.55737704918</v>
       </c>
       <c r="N26" t="n">
-        <v>4256.081967213115</v>
+        <v>2642.516393442623</v>
       </c>
       <c r="O26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
-        <v>3423.874196510561</v>
+        <v>2052.031458277792</v>
       </c>
       <c r="Q26" t="n">
-        <v>1213.705166738312</v>
+        <v>800.9504474134461</v>
       </c>
       <c r="R26" t="n">
-        <v>2438.256198347108</v>
+        <v>1498.423553719008</v>
       </c>
       <c r="S26" t="n">
-        <v>3503.066115702479</v>
+        <v>1975.152892561984</v>
       </c>
       <c r="T26" t="n">
-        <v>4219.285123966942</v>
+        <v>2549.993801652892</v>
       </c>
       <c r="U26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V26" t="n">
-        <v>3057.257218442932</v>
+        <v>2070.525883256529</v>
       </c>
       <c r="W26" t="n">
-        <v>1012.369413239874</v>
+        <v>764.2420525424247</v>
       </c>
       <c r="X26" t="n">
-        <v>2292.154761904762</v>
+        <v>1465.779761904762</v>
       </c>
       <c r="Y26" t="n">
-        <v>2945.295238095238</v>
+        <v>1954.283333333333</v>
       </c>
       <c r="Z26" t="n">
-        <v>3761.464285714286</v>
+        <v>2610.178571428572</v>
       </c>
       <c r="AA26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB26" t="n">
-        <v>876.6249278499279</v>
+        <v>800.3816593352884</v>
       </c>
       <c r="AC26" t="n">
-        <v>232.2364393614542</v>
+        <v>227.8441033921607</v>
       </c>
       <c r="AD26" t="n">
-        <v>698.5234848484849</v>
+        <v>652.3098484848485</v>
       </c>
       <c r="AE26" t="n">
-        <v>882.2659090909091</v>
+        <v>750.2329545454545</v>
       </c>
       <c r="AF26" t="n">
-        <v>979.4064393939394</v>
+        <v>981.1994318181818</v>
       </c>
       <c r="AG26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1903.087685611879</v>
+        <v>441.556581685744</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>1236.004553734062</v>
+        <v>358.3273400317292</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>1285.900400104946</v>
+        <v>315.4530791788857</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>800.25589569161</v>
+        <v>256.4359447004608</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>198.3873472823473</v>
+        <v>65.97499389051806</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
